--- a/with logs for unschedule with saturday sunday/excel_schedules/room_14_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_14_genetic_schedule.xlsx
@@ -616,7 +616,7 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>DB 325 - Database Management
 2A
@@ -630,7 +630,7 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -638,7 +638,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
